--- a/data/Physiology-URI-labwork.xlsx
+++ b/data/Physiology-URI-labwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/HI_Bleaching_Timeseries/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF941B7-2539-4F46-8C84-5C580C1E9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415DF285-9AE7-6B4C-9CE2-60FED951642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="460" windowWidth="28040" windowHeight="19580" xr2:uid="{A8334511-D0E0-DA42-8F89-A6B529CE2D9F}"/>
+    <workbookView xWindow="33600" yWindow="-3080" windowWidth="38400" windowHeight="21140" xr2:uid="{A8334511-D0E0-DA42-8F89-A6B529CE2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Master-ID-List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>ColonyID</t>
   </si>
@@ -92,16 +92,34 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Bag leaked ~4-5 mL spilled out</t>
-  </si>
-  <si>
     <t>2 tubes</t>
   </si>
   <si>
-    <t>3-4 mL spilled out</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 tubes </t>
+  </si>
+  <si>
+    <t>10 + 3-4 mL spilled out</t>
+  </si>
+  <si>
+    <t>7 + Bag leaked ~4-5 mL spilled out</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>no more fragment</t>
+  </si>
+  <si>
+    <t>tiny; no extra homogenate; double the SA for 2 fragments b/c half of skeleton crumbled in bag</t>
+  </si>
+  <si>
+    <t>11 + 1-2 mL leaked out</t>
+  </si>
+  <si>
+    <t>fragment crumbled</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +530,7 @@
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="9" max="9" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -611,7 +629,9 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -632,8 +652,12 @@
       <c r="F5" s="5">
         <v>43662</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8.5</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -655,8 +679,12 @@
       <c r="F6" s="5">
         <v>43662</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -680,7 +708,9 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -701,9 +731,15 @@
       <c r="F8" s="5">
         <v>43662</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -747,9 +783,15 @@
       <c r="F10" s="5">
         <v>43662</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -793,8 +835,12 @@
       <c r="F12" s="5">
         <v>43662</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -816,8 +862,12 @@
       <c r="F13" s="5">
         <v>43662</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7.5</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -839,8 +889,12 @@
       <c r="F14" s="5">
         <v>43662</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.5</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -908,8 +962,12 @@
       <c r="F17" s="5">
         <v>43662</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,8 +989,12 @@
       <c r="F18" s="5">
         <v>43662</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -954,9 +1016,15 @@
       <c r="F19" s="5">
         <v>43662</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -977,8 +1045,12 @@
       <c r="F20" s="5">
         <v>43662</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11.5</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1057,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,7 +1155,7 @@
         <v>20220321</v>
       </c>
       <c r="H24" s="3">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>20</v>
@@ -1108,9 +1180,15 @@
       <c r="F25" s="5">
         <v>43803</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H25" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -1138,7 +1216,7 @@
         <v>26.5</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1167,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1243,8 +1321,12 @@
       <c r="F30" s="5">
         <v>43803</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3">
+        <v>20220411</v>
+      </c>
+      <c r="H30" s="3">
+        <v>14</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1273,7 +1355,7 @@
         <v>17.5</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1299,10 +1381,10 @@
         <v>20220321</v>
       </c>
       <c r="H32" s="3">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1428,9 +1510,15 @@
       <c r="F37" s="5">
         <v>43803</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="9">
+        <v>20220411</v>
+      </c>
+      <c r="H37" s="3">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">

--- a/data/Physiology-URI-labwork.xlsx
+++ b/data/Physiology-URI-labwork.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/HI_Bleaching_Timeseries/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415DF285-9AE7-6B4C-9CE2-60FED951642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67EBB40-7569-D04E-AEA9-2A96DCD958B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3080" windowWidth="38400" windowHeight="21140" xr2:uid="{A8334511-D0E0-DA42-8F89-A6B529CE2D9F}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{A8334511-D0E0-DA42-8F89-A6B529CE2D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Master-ID-List" sheetId="1" r:id="rId1"/>
     <sheet name="Counts" sheetId="4" r:id="rId2"/>
     <sheet name="Chlorophyll" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="44">
   <si>
     <t>ColonyID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>7 + Bag leaked ~4-5 mL spilled out</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -120,6 +117,57 @@
   </si>
   <si>
     <t>fragment crumbled</t>
+  </si>
+  <si>
+    <t>tiny; didn’t find bag</t>
+  </si>
+  <si>
+    <t>nasty stuff from homogenizer..? Homogenate turned darker grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 + 2 mL leaked out </t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Date Counted</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>count dropped: 185</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>count dropped: 250, 140</t>
+  </si>
+  <si>
+    <t>count dropped: 222</t>
+  </si>
+  <si>
+    <t>dropped count: 210</t>
+  </si>
+  <si>
+    <t>dropped count: 124</t>
+  </si>
+  <si>
+    <t>dropped count: 114</t>
+  </si>
+  <si>
+    <t>dropped count: 223</t>
+  </si>
+  <si>
+    <t>dropped count: 53</t>
+  </si>
+  <si>
+    <t>dropped count: 283</t>
   </si>
 </sst>
 </file>
@@ -164,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,11 +235,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,11 +263,24 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,8 +655,12 @@
       <c r="F2" s="5">
         <v>43662</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -604,8 +682,12 @@
       <c r="F3" s="5">
         <v>43662</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7.25</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -627,10 +709,14 @@
       <c r="F4" s="5">
         <v>43662</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,10 +792,14 @@
       <c r="F7" s="5">
         <v>43662</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -732,13 +822,13 @@
         <v>43662</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,8 +850,12 @@
       <c r="F9" s="5">
         <v>43662</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -790,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -812,8 +906,12 @@
       <c r="F11" s="5">
         <v>43662</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="9">
+        <v>20220413</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -916,8 +1014,12 @@
       <c r="F15" s="5">
         <v>43662</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="9">
+        <v>20220413</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -939,9 +1041,15 @@
       <c r="F16" s="5">
         <v>43662</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="9">
+        <v>20220413</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -1023,7 +1131,7 @@
         <v>12.5</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1072,9 +1180,15 @@
       <c r="F21" s="5">
         <v>43662</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="9">
+        <v>20220413</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -1187,7 +1301,7 @@
         <v>9.5</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1487,9 +1601,15 @@
       <c r="F36" s="5">
         <v>43803</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="9">
+        <v>20220413</v>
+      </c>
+      <c r="H36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
@@ -1640,20 +1760,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="8"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1684,152 +1807,386 @@
       <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>43662</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>183</v>
+      </c>
+      <c r="E2" s="3">
+        <v>164</v>
+      </c>
+      <c r="F2" s="3">
+        <v>187</v>
+      </c>
+      <c r="G2" s="3">
+        <v>145</v>
+      </c>
+      <c r="H2" s="3">
+        <v>191</v>
+      </c>
+      <c r="I2" s="3">
+        <v>174</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(STDEV(D2:I2)/AVERAGE(D2:I2))*100</f>
+        <v>9.8877301920030192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>43662</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>247</v>
+      </c>
+      <c r="E3" s="3">
+        <v>288</v>
+      </c>
+      <c r="F3" s="3">
+        <v>221</v>
+      </c>
+      <c r="G3" s="3">
+        <v>245</v>
+      </c>
+      <c r="H3" s="3">
+        <v>251</v>
+      </c>
+      <c r="I3" s="3">
+        <v>248</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M3" s="10">
+        <f>(STDEV(D3:I3)/AVERAGE(D3:I3))*100</f>
+        <v>8.6236883060555929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>43662</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>43662</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>175</v>
+      </c>
+      <c r="E5" s="3">
+        <v>195</v>
+      </c>
+      <c r="F5" s="3">
+        <v>170</v>
+      </c>
+      <c r="G5" s="3">
+        <v>178</v>
+      </c>
+      <c r="H5" s="3">
+        <v>141</v>
+      </c>
+      <c r="I5" s="3">
+        <v>187</v>
+      </c>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M41" si="0">(STDEV(D5:I5)/AVERAGE(D5:I5))*100</f>
+        <v>10.673943729379594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>19</v>
       </c>
       <c r="B6" s="7">
         <v>43662</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>233</v>
+      </c>
+      <c r="E6" s="3">
+        <v>223</v>
+      </c>
+      <c r="F6" s="3">
+        <v>233</v>
+      </c>
+      <c r="G6" s="3">
+        <v>238</v>
+      </c>
+      <c r="H6" s="3">
+        <v>197</v>
+      </c>
+      <c r="I6" s="3">
+        <v>202</v>
+      </c>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>7.8842177428504998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>20</v>
       </c>
       <c r="B7" s="7">
         <v>43662</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>201</v>
       </c>
       <c r="B8" s="7">
         <v>43662</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>202</v>
       </c>
       <c r="B9" s="7">
         <v>43662</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>158</v>
+      </c>
+      <c r="E9" s="3">
+        <v>146</v>
+      </c>
+      <c r="F9" s="3">
+        <v>181</v>
+      </c>
+      <c r="G9" s="3">
+        <v>196</v>
+      </c>
+      <c r="H9" s="3">
+        <v>176</v>
+      </c>
+      <c r="I9" s="3">
+        <v>170</v>
+      </c>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>10.269200197937083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>203</v>
       </c>
       <c r="B10" s="7">
         <v>43662</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>147</v>
+      </c>
+      <c r="F10" s="3">
+        <v>166</v>
+      </c>
+      <c r="G10" s="3">
+        <v>133</v>
+      </c>
+      <c r="H10" s="3">
+        <v>169</v>
+      </c>
+      <c r="I10" s="3">
+        <v>158</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="11">
+        <v>20220419</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>8.6341663057634612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>204</v>
       </c>
@@ -1844,8 +2201,14 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>209</v>
       </c>
@@ -1860,376 +2223,946 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>210</v>
       </c>
       <c r="B13" s="7">
         <v>43662</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>196</v>
+      </c>
+      <c r="E13" s="3">
+        <v>168</v>
+      </c>
+      <c r="F13" s="3">
+        <v>156</v>
+      </c>
+      <c r="G13" s="3">
+        <v>137</v>
+      </c>
+      <c r="H13" s="3">
+        <v>175</v>
+      </c>
+      <c r="I13" s="3">
+        <v>188</v>
+      </c>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
+        <v>12.65458052661163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>211</v>
       </c>
       <c r="B14" s="7">
         <v>43662</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>142</v>
+      </c>
+      <c r="E14" s="3">
+        <v>114</v>
+      </c>
+      <c r="F14" s="3">
+        <v>136</v>
+      </c>
+      <c r="G14" s="3">
+        <v>158</v>
+      </c>
+      <c r="H14" s="3">
+        <v>168</v>
+      </c>
+      <c r="I14" s="3">
+        <v>144</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>12.98226268354059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>212</v>
       </c>
       <c r="B15" s="7">
         <v>43662</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>179</v>
+      </c>
+      <c r="E15" s="3">
+        <v>187</v>
+      </c>
+      <c r="F15" s="3">
+        <v>182</v>
+      </c>
+      <c r="G15" s="3">
+        <v>193</v>
+      </c>
+      <c r="H15" s="3">
+        <v>176</v>
+      </c>
+      <c r="I15" s="3">
+        <v>156</v>
+      </c>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1032719556969024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>217</v>
       </c>
       <c r="B16" s="7">
         <v>43662</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>158</v>
+      </c>
+      <c r="E16" s="3">
+        <v>194</v>
+      </c>
+      <c r="F16" s="3">
+        <v>164</v>
+      </c>
+      <c r="G16" s="3">
+        <v>198</v>
+      </c>
+      <c r="H16" s="3">
+        <v>158</v>
+      </c>
+      <c r="I16" s="3">
+        <v>168</v>
+      </c>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>10.388888009928698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>218</v>
       </c>
       <c r="B17" s="7">
         <v>43662</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>170</v>
+      </c>
+      <c r="E17" s="3">
+        <v>197</v>
+      </c>
+      <c r="F17" s="3">
+        <v>178</v>
+      </c>
+      <c r="G17" s="3">
+        <v>162</v>
+      </c>
+      <c r="H17" s="3">
+        <v>152</v>
+      </c>
+      <c r="I17" s="3">
+        <v>199</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>10.704174438827305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>219</v>
       </c>
       <c r="B18" s="7">
         <v>43662</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>164</v>
+      </c>
+      <c r="E18" s="3">
+        <v>149</v>
+      </c>
+      <c r="F18" s="3">
+        <v>148</v>
+      </c>
+      <c r="G18" s="3">
+        <v>148</v>
+      </c>
+      <c r="H18" s="3">
+        <v>164</v>
+      </c>
+      <c r="I18" s="3">
+        <v>152</v>
+      </c>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0313843365276094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>220</v>
       </c>
       <c r="B19" s="7">
         <v>43662</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>201</v>
+      </c>
+      <c r="E19" s="3">
+        <v>185</v>
+      </c>
+      <c r="F19" s="3">
+        <v>167</v>
+      </c>
+      <c r="G19" s="3">
+        <v>183</v>
+      </c>
+      <c r="H19" s="3">
+        <v>176</v>
+      </c>
+      <c r="I19" s="3">
+        <v>171</v>
+      </c>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="0"/>
+        <v>6.7376257016214307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>221</v>
       </c>
       <c r="B20" s="7">
         <v>43662</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>157</v>
+      </c>
+      <c r="E20" s="3">
+        <v>127</v>
+      </c>
+      <c r="F20" s="3">
+        <v>134</v>
+      </c>
+      <c r="G20" s="3">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3">
+        <v>135</v>
+      </c>
+      <c r="I20" s="3">
+        <v>139</v>
+      </c>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1282373176733529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>222</v>
       </c>
       <c r="B21" s="7">
         <v>43662</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>172</v>
+      </c>
+      <c r="E21" s="3">
+        <v>139</v>
+      </c>
+      <c r="F21" s="3">
+        <v>149</v>
+      </c>
+      <c r="G21" s="3">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3">
+        <v>174</v>
+      </c>
+      <c r="I21" s="3">
+        <v>172</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="0"/>
+        <v>11.650722850817031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" s="7">
         <v>43803</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3">
+        <v>92</v>
+      </c>
+      <c r="F22" s="3">
+        <v>93</v>
+      </c>
+      <c r="G22" s="3">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3">
+        <v>126</v>
+      </c>
+      <c r="I22" s="3">
+        <v>120</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3">
+        <v>20220420</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
+        <v>17.367132961095933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>4</v>
       </c>
       <c r="B23" s="7">
         <v>43803</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>171</v>
+      </c>
+      <c r="E23" s="3">
+        <v>218</v>
+      </c>
+      <c r="F23" s="3">
+        <v>201</v>
+      </c>
+      <c r="G23" s="3">
+        <v>226</v>
+      </c>
+      <c r="H23" s="3">
+        <v>243</v>
+      </c>
+      <c r="I23" s="3">
+        <v>226</v>
+      </c>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="3">
+        <v>20220420</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="0"/>
+        <v>11.74360064573516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>11</v>
       </c>
       <c r="B24" s="7">
         <v>43803</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3">
+        <v>168</v>
+      </c>
+      <c r="F24" s="3">
+        <v>174</v>
+      </c>
+      <c r="G24" s="3">
+        <v>149</v>
+      </c>
+      <c r="H24" s="3">
+        <v>149</v>
+      </c>
+      <c r="I24" s="3">
+        <v>153</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="3">
+        <v>20220420</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1223805649480205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>12</v>
       </c>
       <c r="B25" s="7">
         <v>43803</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>166</v>
+      </c>
+      <c r="E25" s="3">
+        <v>167</v>
+      </c>
+      <c r="F25" s="3">
+        <v>197</v>
+      </c>
+      <c r="G25" s="3">
+        <v>169</v>
+      </c>
+      <c r="H25" s="3">
+        <v>175</v>
+      </c>
+      <c r="I25" s="3">
+        <v>165</v>
+      </c>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="3">
+        <v>20220420</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="0"/>
+        <v>7.0482330045199602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>19</v>
       </c>
       <c r="B26" s="7">
         <v>43803</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>159</v>
+      </c>
+      <c r="E26" s="3">
+        <v>193</v>
+      </c>
+      <c r="F26" s="3">
+        <v>178</v>
+      </c>
+      <c r="G26" s="3">
+        <v>195</v>
+      </c>
+      <c r="H26" s="3">
+        <v>182</v>
+      </c>
+      <c r="I26" s="3">
+        <v>190</v>
+      </c>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="11">
+        <v>20220420</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3169602791823216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>20</v>
       </c>
       <c r="B27" s="7">
         <v>43803</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>180</v>
+      </c>
+      <c r="E27" s="3">
+        <v>179</v>
+      </c>
+      <c r="F27" s="3">
+        <v>226</v>
+      </c>
+      <c r="G27" s="3">
+        <v>217</v>
+      </c>
+      <c r="H27" s="3">
+        <v>264</v>
+      </c>
+      <c r="I27" s="3">
+        <v>194</v>
+      </c>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="11">
+        <v>20220420</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="0"/>
+        <v>15.559118477614774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>201</v>
       </c>
       <c r="B28" s="7">
         <v>43803</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>206</v>
+      </c>
+      <c r="E28" s="3">
+        <v>175</v>
+      </c>
+      <c r="F28" s="3">
+        <v>188</v>
+      </c>
+      <c r="G28" s="3">
+        <v>188</v>
+      </c>
+      <c r="H28" s="3">
+        <v>164</v>
+      </c>
+      <c r="I28" s="3">
+        <v>143</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="3">
+        <v>20220413</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="0"/>
+        <v>12.383780485292881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>202</v>
       </c>
       <c r="B29" s="7">
         <v>43803</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>192</v>
+      </c>
+      <c r="E29" s="3">
+        <v>188</v>
+      </c>
+      <c r="F29" s="3">
+        <v>179</v>
+      </c>
+      <c r="G29" s="3">
+        <v>204</v>
+      </c>
+      <c r="H29" s="3">
+        <v>200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>222</v>
+      </c>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="3">
+        <v>20220421</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="0"/>
+        <v>7.549229553289627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>203</v>
       </c>
       <c r="B30" s="7">
         <v>43803</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="3">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>159</v>
+      </c>
+      <c r="E30" s="3">
+        <v>188</v>
+      </c>
+      <c r="F30" s="3">
+        <v>147</v>
+      </c>
+      <c r="G30" s="3">
+        <v>172</v>
+      </c>
+      <c r="H30" s="3">
+        <v>142</v>
+      </c>
+      <c r="I30" s="3">
+        <v>171</v>
+      </c>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="0"/>
+        <v>10.554307094136776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>204</v>
       </c>
       <c r="B31" s="7">
         <v>43803</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="C31" s="3">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>155</v>
+      </c>
+      <c r="E31" s="3">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3">
+        <v>217</v>
+      </c>
+      <c r="G31" s="3">
+        <v>203</v>
+      </c>
+      <c r="H31" s="3">
+        <v>164</v>
+      </c>
+      <c r="I31" s="3">
+        <v>179</v>
+      </c>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="0"/>
+        <v>12.964951397008301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>209</v>
       </c>
       <c r="B32" s="7">
         <v>43803</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="C32" s="3">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
+        <v>117</v>
+      </c>
+      <c r="E32" s="3">
+        <v>169</v>
+      </c>
+      <c r="F32" s="3">
+        <v>94</v>
+      </c>
+      <c r="G32" s="3">
+        <v>181</v>
+      </c>
+      <c r="H32" s="3">
+        <v>152</v>
+      </c>
+      <c r="I32" s="3">
+        <v>154</v>
+      </c>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="0"/>
+        <v>22.712250309043473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>210</v>
       </c>
       <c r="B33" s="7">
         <v>43803</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="C33" s="3">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <v>126</v>
+      </c>
+      <c r="E33" s="3">
+        <v>189</v>
+      </c>
+      <c r="F33" s="3">
+        <v>151</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>139</v>
+      </c>
+      <c r="I33" s="3">
+        <v>213</v>
+      </c>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="0"/>
+        <v>27.159988966138759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>211</v>
       </c>
       <c r="B34" s="7">
         <v>43803</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3">
+        <v>180</v>
+      </c>
+      <c r="F34" s="3">
+        <v>197</v>
+      </c>
+      <c r="G34" s="3">
+        <v>223</v>
+      </c>
+      <c r="H34" s="3">
+        <v>157</v>
+      </c>
+      <c r="I34" s="3">
+        <v>158</v>
+      </c>
       <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="0"/>
+        <v>14.287769032425302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>212</v>
       </c>
       <c r="B35" s="7">
         <v>43803</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>182</v>
+      </c>
+      <c r="E35" s="3">
+        <v>192</v>
+      </c>
+      <c r="F35" s="3">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3">
+        <v>130</v>
+      </c>
+      <c r="H35" s="3">
+        <v>158</v>
+      </c>
+      <c r="I35" s="3">
+        <v>213</v>
+      </c>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="11">
+        <v>20220421</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="0"/>
+        <v>18.663034004293177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>217</v>
       </c>
@@ -2244,8 +3177,14 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>218</v>
       </c>
@@ -2260,8 +3199,14 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>219</v>
       </c>
@@ -2276,24 +3221,54 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>220</v>
       </c>
       <c r="B39" s="7">
         <v>43803</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3">
+        <v>151</v>
+      </c>
+      <c r="F39" s="3">
+        <v>135</v>
+      </c>
+      <c r="G39" s="3">
+        <v>160</v>
+      </c>
+      <c r="H39" s="3">
+        <v>124</v>
+      </c>
+      <c r="I39" s="3">
+        <v>156</v>
+      </c>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="3">
+        <v>20220419</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="0"/>
+        <v>12.660590326660623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>221</v>
       </c>
@@ -2308,8 +3283,14 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>222</v>
       </c>
@@ -2324,10 +3305,21 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M5:M6 M9:M1048576 M2:M3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
